--- a/RBD_Prob-6.xlsx
+++ b/RBD_Prob-6.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9214862-B409-44EF-B3F4-652756D5528C}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R\3203-Design of experiment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D553E0FE-9040-464F-8AC9-9D7B93865AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -55,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,13 +408,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection sqref="A1:C37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -442,7 +436,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,7 +447,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -464,7 +458,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -475,7 +469,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -486,7 +480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -497,7 +491,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -508,7 +502,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -519,7 +513,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -530,7 +524,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -541,7 +535,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -549,10 +543,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -563,7 +557,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -574,7 +568,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -585,7 +579,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -596,7 +590,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -607,7 +601,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -618,7 +612,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -629,7 +623,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -640,7 +634,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -651,7 +645,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -662,7 +656,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -673,7 +667,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -684,7 +678,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -695,7 +689,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -706,7 +700,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -717,7 +711,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -728,7 +722,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -739,7 +733,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -750,7 +744,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -761,7 +755,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -772,7 +766,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -783,7 +777,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -794,7 +788,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -805,7 +799,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -816,7 +810,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>4</v>
       </c>
